--- a/data/icp.xlsx
+++ b/data/icp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/Writing/Manuscripts/Unsubmitted/CA-organic/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ED731F-070C-6E40-B791-2EA5A698BE8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6969CA2-96B6-E145-8531-837540E4B432}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38780" yWindow="5060" windowWidth="25040" windowHeight="14500" xr2:uid="{57789362-3676-2C45-BCA4-E5DFAC9868CE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15040" xr2:uid="{57789362-3676-2C45-BCA4-E5DFAC9868CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Brennan, Eric:</t>
         </r>
@@ -57,7 +57,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -67,7 +67,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>These are the plot numbers.</t>
         </r>
@@ -81,7 +81,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Brennan, Eric:</t>
         </r>
@@ -90,7 +90,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These short system descriptions are the codes that I used from the start of the study, but the more detailed description with the system numbers is in the next column.</t>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>pH</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Trt_id</t>
+  </si>
+  <si>
+    <t>IC</t>
   </si>
 </sst>
 </file>
@@ -299,26 +302,26 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -398,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -438,6 +441,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,7 +466,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Stephen Wood" refreshedDate="43615.637506712963" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{2553A438-02A9-EC4B-A5D0-BD90A320CD7C}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AA21" sheet="Sheet1"/>
+    <worksheetSource ref="A1:AB21" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="27">
     <cacheField name="SAMPLE #" numFmtId="0">
@@ -1204,7 +1211,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BD29BA8-C112-DC45-A4EC-49AF06810636}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BD29BA8-C112-DC45-A4EC-49AF06810636}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:I8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
@@ -1681,13 +1688,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3E3361-D418-4D46-B002-DDA0F0B42CA0}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="26" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1700,77 +1709,80 @@
       <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1783,77 +1795,80 @@
       <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="18">
+        <v>5.6666666666666664E-2</v>
+      </c>
+      <c r="F2" s="9">
         <v>7.37</v>
       </c>
-      <c r="F2" s="9">
+      <c r="G2" s="9">
         <v>1.68</v>
       </c>
-      <c r="G2" s="9">
+      <c r="H2" s="9">
         <v>8.1199999999999992</v>
       </c>
-      <c r="H2" s="9">
+      <c r="I2" s="9">
         <v>3.17</v>
       </c>
-      <c r="I2" s="9">
+      <c r="J2" s="9">
         <v>4.79</v>
       </c>
-      <c r="J2" s="9">
+      <c r="K2" s="9">
         <v>3.47</v>
       </c>
-      <c r="K2" s="9">
+      <c r="L2" s="9">
         <v>0.31</v>
       </c>
-      <c r="L2" s="10">
+      <c r="M2" s="10">
         <v>1.7</v>
       </c>
-      <c r="M2" s="11">
+      <c r="N2" s="11">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="N2" s="9">
+      <c r="O2" s="9">
         <v>0.6</v>
       </c>
-      <c r="O2" s="10">
+      <c r="P2" s="10">
         <v>30.1</v>
       </c>
-      <c r="P2" s="10">
+      <c r="Q2" s="10">
         <v>34.9</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="R2" s="8">
         <v>115</v>
       </c>
-      <c r="R2" s="9">
+      <c r="S2" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S2" s="8">
+      <c r="T2" s="8">
         <v>70</v>
       </c>
-      <c r="T2" s="9">
+      <c r="U2" s="9">
         <v>0.3</v>
       </c>
-      <c r="U2" s="9">
+      <c r="V2" s="9">
         <v>7.72</v>
       </c>
-      <c r="V2" s="9">
+      <c r="W2" s="9">
         <v>1.59</v>
       </c>
-      <c r="W2" s="10">
+      <c r="X2" s="10">
         <v>2.7</v>
       </c>
-      <c r="X2" s="10">
+      <c r="Y2" s="10">
         <v>93.4</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="Z2" s="10">
         <v>0.8</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="AA2" s="8">
         <v>299</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AB2" s="10">
         <v>13.4</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1866,77 +1881,80 @@
       <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="18">
+        <v>6.1403508771929821E-2</v>
+      </c>
+      <c r="F3" s="9">
         <v>7.22</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G3" s="9">
         <v>1.67</v>
       </c>
-      <c r="G3" s="9">
+      <c r="H3" s="9">
         <v>8.39</v>
       </c>
-      <c r="H3" s="9">
+      <c r="I3" s="9">
         <v>2.72</v>
       </c>
-      <c r="I3" s="9">
+      <c r="J3" s="9">
         <v>4.8600000000000003</v>
       </c>
-      <c r="J3" s="9">
+      <c r="K3" s="9">
         <v>3.28</v>
       </c>
-      <c r="K3" s="9">
+      <c r="L3" s="9">
         <v>0.22</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="10">
         <v>1.4</v>
       </c>
-      <c r="M3" s="11">
+      <c r="N3" s="11">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N3" s="9">
+      <c r="O3" s="9">
         <v>0.57999999999999996</v>
-      </c>
-      <c r="O3" s="10">
-        <v>26.5</v>
       </c>
       <c r="P3" s="10">
         <v>26.5</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="R3" s="8">
         <v>92</v>
       </c>
-      <c r="R3" s="9">
+      <c r="S3" s="9">
         <v>0.23</v>
       </c>
-      <c r="S3" s="8">
+      <c r="T3" s="8">
         <v>59</v>
       </c>
-      <c r="T3" s="9">
+      <c r="U3" s="9">
         <v>0.26</v>
       </c>
-      <c r="U3" s="9">
+      <c r="V3" s="9">
         <v>6.59</v>
       </c>
-      <c r="V3" s="9">
+      <c r="W3" s="9">
         <v>1.23</v>
       </c>
-      <c r="W3" s="10">
+      <c r="X3" s="10">
         <v>2</v>
       </c>
-      <c r="X3" s="10">
+      <c r="Y3" s="10">
         <v>90.1</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Z3" s="10">
         <v>0.6</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="AA3" s="8">
         <v>352</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AB3" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -1949,77 +1967,80 @@
       <c r="D4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="18">
+        <v>5.7971014492753624E-2</v>
+      </c>
+      <c r="F4" s="9">
         <v>7.44</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <v>1.96</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
         <v>9.18</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="9">
         <v>4.01</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="9">
         <v>5.59</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K4" s="9">
         <v>3.85</v>
       </c>
-      <c r="K4" s="9">
+      <c r="L4" s="9">
         <v>0.32</v>
       </c>
-      <c r="L4" s="10">
+      <c r="M4" s="10">
         <v>1.6</v>
       </c>
-      <c r="M4" s="11">
+      <c r="N4" s="11">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="N4" s="9">
+      <c r="O4" s="9">
         <v>0.81</v>
       </c>
-      <c r="O4" s="10">
+      <c r="P4" s="10">
         <v>36.5</v>
       </c>
-      <c r="P4" s="10">
+      <c r="Q4" s="10">
         <v>32.700000000000003</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="R4" s="8">
         <v>122</v>
       </c>
-      <c r="R4" s="9">
+      <c r="S4" s="9">
         <v>0.31</v>
       </c>
-      <c r="S4" s="8">
+      <c r="T4" s="8">
         <v>70</v>
       </c>
-      <c r="T4" s="9">
+      <c r="U4" s="9">
         <v>0.31</v>
       </c>
-      <c r="U4" s="9">
+      <c r="V4" s="9">
         <v>7.62</v>
       </c>
-      <c r="V4" s="9">
+      <c r="W4" s="9">
         <v>1.76</v>
       </c>
-      <c r="W4" s="10">
+      <c r="X4" s="10">
         <v>3.2</v>
       </c>
-      <c r="X4" s="10">
+      <c r="Y4" s="10">
         <v>99.6</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Z4" s="10">
         <v>0.8</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="AA4" s="8">
         <v>410</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AB4" s="10">
         <v>12.8</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>6</v>
       </c>
@@ -2032,77 +2053,80 @@
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="18">
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="F5" s="9">
         <v>7.43</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G5" s="9">
         <v>1.76</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <v>8.27</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <v>3.83</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="9">
         <v>4.41</v>
       </c>
-      <c r="J5" s="9">
+      <c r="K5" s="9">
         <v>3.3</v>
       </c>
-      <c r="K5" s="9">
+      <c r="L5" s="9">
         <v>0.37</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>1.8</v>
       </c>
-      <c r="M5" s="11">
+      <c r="N5" s="11">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="N5" s="9">
+      <c r="O5" s="9">
         <v>0.71</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <v>35.5</v>
       </c>
-      <c r="P5" s="10">
+      <c r="Q5" s="10">
         <v>36.9</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="R5" s="8">
         <v>169</v>
       </c>
-      <c r="R5" s="9">
+      <c r="S5" s="9">
         <v>0.43</v>
       </c>
-      <c r="S5" s="8">
+      <c r="T5" s="8">
         <v>63</v>
       </c>
-      <c r="T5" s="9">
+      <c r="U5" s="9">
         <v>0.27</v>
       </c>
-      <c r="U5" s="9">
+      <c r="V5" s="9">
         <v>8.15</v>
       </c>
-      <c r="V5" s="9">
+      <c r="W5" s="9">
         <v>1.97</v>
       </c>
-      <c r="W5" s="10">
+      <c r="X5" s="10">
         <v>3.5</v>
       </c>
-      <c r="X5" s="10">
+      <c r="Y5" s="10">
         <v>95.6</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Z5" s="10">
         <v>0.8</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="AA5" s="8">
         <v>419</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AB5" s="10">
         <v>12.3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>7</v>
       </c>
@@ -2115,77 +2139,80 @@
       <c r="D6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="18">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="F6" s="9">
         <v>7.32</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="9">
         <v>2.36</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>11.29</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="9">
         <v>5.16</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="9">
         <v>5.62</v>
       </c>
-      <c r="J6" s="9">
+      <c r="K6" s="9">
         <v>4.34</v>
       </c>
-      <c r="K6" s="9">
+      <c r="L6" s="9">
         <v>0.36</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>1.7</v>
       </c>
-      <c r="M6" s="11">
+      <c r="N6" s="11">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="N6" s="9">
+      <c r="O6" s="9">
         <v>0.98</v>
       </c>
-      <c r="O6" s="10">
+      <c r="P6" s="10">
         <v>49.5</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="10">
         <v>36.299999999999997</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="R6" s="8">
         <v>169</v>
       </c>
-      <c r="R6" s="9">
+      <c r="S6" s="9">
         <v>0.43</v>
       </c>
-      <c r="S6" s="8">
+      <c r="T6" s="8">
         <v>66</v>
       </c>
-      <c r="T6" s="9">
+      <c r="U6" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="U6" s="9">
+      <c r="V6" s="9">
         <v>7.54</v>
       </c>
-      <c r="V6" s="9">
+      <c r="W6" s="9">
         <v>1.81</v>
       </c>
-      <c r="W6" s="10">
+      <c r="X6" s="10">
         <v>3.6</v>
       </c>
-      <c r="X6" s="10">
+      <c r="Y6" s="10">
         <v>104.2</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Z6" s="10">
         <v>0.8</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="AA6" s="8">
         <v>400</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AB6" s="10">
         <v>13.6</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>10</v>
       </c>
@@ -2198,77 +2225,80 @@
       <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="18">
+        <v>6.2500000000000014E-2</v>
+      </c>
+      <c r="F7" s="9">
         <v>7.49</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <v>2.12</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <v>9.7100000000000009</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="9">
         <v>4.59</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="9">
         <v>5.3</v>
       </c>
-      <c r="J7" s="9">
+      <c r="K7" s="9">
         <v>4.72</v>
       </c>
-      <c r="K7" s="9">
+      <c r="L7" s="9">
         <v>0.37</v>
       </c>
-      <c r="L7" s="10">
+      <c r="M7" s="10">
         <v>1.8</v>
       </c>
-      <c r="M7" s="11">
+      <c r="N7" s="11">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="N7" s="9">
+      <c r="O7" s="9">
         <v>0.91</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P7" s="10">
         <v>36</v>
       </c>
-      <c r="P7" s="10">
+      <c r="Q7" s="10">
         <v>39.700000000000003</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="R7" s="8">
         <v>183</v>
       </c>
-      <c r="R7" s="9">
+      <c r="S7" s="9">
         <v>0.47</v>
       </c>
-      <c r="S7" s="8">
+      <c r="T7" s="8">
         <v>58</v>
       </c>
-      <c r="T7" s="9">
+      <c r="U7" s="9">
         <v>0.25</v>
       </c>
-      <c r="U7" s="9">
+      <c r="V7" s="9">
         <v>6.91</v>
       </c>
-      <c r="V7" s="9">
+      <c r="W7" s="9">
         <v>1.67</v>
       </c>
-      <c r="W7" s="10">
+      <c r="X7" s="10">
         <v>3.5</v>
       </c>
-      <c r="X7" s="10">
+      <c r="Y7" s="10">
         <v>94.2</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Z7" s="10">
         <v>0.8</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="AA7" s="8">
         <v>436</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AB7" s="10">
         <v>13.2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>12</v>
       </c>
@@ -2281,77 +2311,80 @@
       <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="18">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="F8" s="9">
         <v>7.52</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>9.11</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="9">
         <v>4.42</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="9">
         <v>6.06</v>
       </c>
-      <c r="J8" s="9">
+      <c r="K8" s="9">
         <v>4.1900000000000004</v>
       </c>
-      <c r="K8" s="9">
+      <c r="L8" s="9">
         <v>0.39</v>
       </c>
-      <c r="L8" s="10">
+      <c r="M8" s="10">
         <v>2.1</v>
       </c>
-      <c r="M8" s="11">
+      <c r="N8" s="11">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="N8" s="9">
+      <c r="O8" s="9">
         <v>0.96</v>
       </c>
-      <c r="O8" s="10">
+      <c r="P8" s="10">
         <v>37.1</v>
       </c>
-      <c r="P8" s="10">
+      <c r="Q8" s="10">
         <v>40.5</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="R8" s="8">
         <v>175</v>
       </c>
-      <c r="R8" s="9">
+      <c r="S8" s="9">
         <v>0.45</v>
       </c>
-      <c r="S8" s="8">
+      <c r="T8" s="8">
         <v>74</v>
       </c>
-      <c r="T8" s="9">
+      <c r="U8" s="9">
         <v>0.32</v>
       </c>
-      <c r="U8" s="9">
+      <c r="V8" s="9">
         <v>7.86</v>
       </c>
-      <c r="V8" s="9">
+      <c r="W8" s="9">
         <v>1.94</v>
       </c>
-      <c r="W8" s="10">
+      <c r="X8" s="10">
         <v>3.6</v>
       </c>
-      <c r="X8" s="10">
+      <c r="Y8" s="10">
         <v>99.7</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Z8" s="10">
         <v>0.8</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="AA8" s="8">
         <v>372</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AB8" s="10">
         <v>14.2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>13</v>
       </c>
@@ -2364,77 +2397,80 @@
       <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="18">
+        <v>7.9710144927536239E-2</v>
+      </c>
+      <c r="F9" s="9">
         <v>7.42</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="9">
         <v>2.17</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <v>10.09</v>
       </c>
-      <c r="H9" s="9">
+      <c r="I9" s="9">
         <v>4.8</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="9">
         <v>4.62</v>
       </c>
-      <c r="J9" s="9">
+      <c r="K9" s="9">
         <v>4.7699999999999996</v>
       </c>
-      <c r="K9" s="9">
+      <c r="L9" s="9">
         <v>0.33</v>
       </c>
-      <c r="L9" s="10">
+      <c r="M9" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M9" s="11">
+      <c r="N9" s="11">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <v>0.77</v>
       </c>
-      <c r="O9" s="10">
+      <c r="P9" s="10">
         <v>38</v>
       </c>
-      <c r="P9" s="10">
+      <c r="Q9" s="10">
         <v>34.9</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="8">
         <v>210</v>
       </c>
-      <c r="R9" s="9">
+      <c r="S9" s="9">
         <v>0.54</v>
       </c>
-      <c r="S9" s="8">
+      <c r="T9" s="8">
         <v>50</v>
       </c>
-      <c r="T9" s="9">
+      <c r="U9" s="9">
         <v>0.22</v>
       </c>
-      <c r="U9" s="9">
+      <c r="V9" s="9">
         <v>6.79</v>
       </c>
-      <c r="V9" s="9">
+      <c r="W9" s="9">
         <v>1.67</v>
       </c>
-      <c r="W9" s="10">
+      <c r="X9" s="10">
         <v>3.6</v>
       </c>
-      <c r="X9" s="10">
+      <c r="Y9" s="10">
         <v>89.2</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Z9" s="10">
         <v>0.8</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="AA9" s="8">
         <v>324</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AB9" s="10">
         <v>12.9</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>15</v>
       </c>
@@ -2447,77 +2483,80 @@
       <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="18">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="F10" s="9">
         <v>7.4</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G10" s="9">
         <v>1.82</v>
       </c>
-      <c r="G10" s="9">
+      <c r="H10" s="9">
         <v>8.75</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="9">
         <v>3.39</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="9">
         <v>5.24</v>
       </c>
-      <c r="J10" s="9">
+      <c r="K10" s="9">
         <v>4.09</v>
       </c>
-      <c r="K10" s="9">
+      <c r="L10" s="9">
         <v>0.21</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <v>2</v>
       </c>
-      <c r="M10" s="11">
+      <c r="N10" s="11">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="N10" s="9">
+      <c r="O10" s="9">
         <v>0.47</v>
       </c>
-      <c r="O10" s="10">
+      <c r="P10" s="10">
         <v>29.4</v>
       </c>
-      <c r="P10" s="10">
+      <c r="Q10" s="10">
         <v>27.7</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="8">
         <v>110</v>
       </c>
-      <c r="R10" s="9">
+      <c r="S10" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S10" s="8">
+      <c r="T10" s="8">
         <v>59</v>
       </c>
-      <c r="T10" s="9">
+      <c r="U10" s="9">
         <v>0.26</v>
       </c>
-      <c r="U10" s="9">
+      <c r="V10" s="9">
         <v>6.1</v>
       </c>
-      <c r="V10" s="9">
+      <c r="W10" s="9">
         <v>1.32</v>
       </c>
-      <c r="W10" s="10">
+      <c r="X10" s="10">
         <v>1.9</v>
       </c>
-      <c r="X10" s="10">
+      <c r="Y10" s="10">
         <v>93.4</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Z10" s="10">
         <v>0.7</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="AA10" s="8">
         <v>343</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AB10" s="10">
         <v>10.9</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>16</v>
       </c>
@@ -2530,77 +2569,80 @@
       <c r="D11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="18">
+        <v>7.0512820512820512E-2</v>
+      </c>
+      <c r="F11" s="9">
         <v>7.36</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
         <v>2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
         <v>9.0399999999999991</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="9">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="9">
         <v>5.2</v>
       </c>
-      <c r="J11" s="9">
+      <c r="K11" s="9">
         <v>3.47</v>
       </c>
-      <c r="K11" s="9">
+      <c r="L11" s="9">
         <v>0.35</v>
       </c>
-      <c r="L11" s="10">
+      <c r="M11" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M11" s="11">
+      <c r="N11" s="11">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N11" s="9">
+      <c r="O11" s="9">
         <v>0.71</v>
       </c>
-      <c r="O11" s="10">
+      <c r="P11" s="10">
         <v>38.799999999999997</v>
       </c>
-      <c r="P11" s="10">
+      <c r="Q11" s="10">
         <v>33.700000000000003</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="R11" s="8">
         <v>150</v>
       </c>
-      <c r="R11" s="9">
+      <c r="S11" s="9">
         <v>0.38</v>
       </c>
-      <c r="S11" s="8">
+      <c r="T11" s="8">
         <v>67</v>
       </c>
-      <c r="T11" s="9">
+      <c r="U11" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="U11" s="9">
+      <c r="V11" s="9">
         <v>7.3</v>
       </c>
-      <c r="V11" s="9">
+      <c r="W11" s="9">
         <v>1.83</v>
       </c>
-      <c r="W11" s="10">
+      <c r="X11" s="10">
         <v>3.2</v>
       </c>
-      <c r="X11" s="10">
+      <c r="Y11" s="10">
         <v>93.6</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Z11" s="10">
         <v>0.8</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="AA11" s="8">
         <v>381</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AB11" s="10">
         <v>11.8</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>18</v>
       </c>
@@ -2613,77 +2655,80 @@
       <c r="D12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="18">
+        <v>7.0987654320987637E-2</v>
+      </c>
+      <c r="F12" s="9">
         <v>7.31</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
         <v>2.35</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
         <v>10.26</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="9">
         <v>4.99</v>
       </c>
-      <c r="I12" s="9">
+      <c r="J12" s="9">
         <v>4.5</v>
       </c>
-      <c r="J12" s="9">
+      <c r="K12" s="9">
         <v>4.51</v>
       </c>
-      <c r="K12" s="9">
+      <c r="L12" s="9">
         <v>0.35</v>
       </c>
-      <c r="L12" s="10">
+      <c r="M12" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M12" s="11">
+      <c r="N12" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="N12" s="9">
+      <c r="O12" s="9">
         <v>0.78</v>
       </c>
-      <c r="O12" s="10">
+      <c r="P12" s="10">
         <v>48.1</v>
       </c>
-      <c r="P12" s="10">
+      <c r="Q12" s="10">
         <v>32.9</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="R12" s="8">
         <v>277</v>
       </c>
-      <c r="R12" s="9">
+      <c r="S12" s="9">
         <v>0.71</v>
       </c>
-      <c r="S12" s="8">
+      <c r="T12" s="8">
         <v>52</v>
       </c>
-      <c r="T12" s="9">
+      <c r="U12" s="9">
         <v>0.23</v>
       </c>
-      <c r="U12" s="9">
+      <c r="V12" s="9">
         <v>6.61</v>
       </c>
-      <c r="V12" s="9">
+      <c r="W12" s="9">
         <v>1.61</v>
       </c>
-      <c r="W12" s="10">
+      <c r="X12" s="10">
         <v>3.7</v>
       </c>
-      <c r="X12" s="10">
+      <c r="Y12" s="10">
         <v>81.8</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Z12" s="10">
         <v>0.8</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="AA12" s="8">
         <v>375</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AB12" s="10">
         <v>10.8</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>20</v>
       </c>
@@ -2696,77 +2741,80 @@
       <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="18">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="F13" s="9">
         <v>7.37</v>
       </c>
-      <c r="F13" s="9">
+      <c r="G13" s="9">
         <v>1.39</v>
       </c>
-      <c r="G13" s="9">
+      <c r="H13" s="9">
         <v>6.27</v>
       </c>
-      <c r="H13" s="9">
+      <c r="I13" s="9">
         <v>2.52</v>
       </c>
-      <c r="I13" s="9">
+      <c r="J13" s="9">
         <v>4.2300000000000004</v>
       </c>
-      <c r="J13" s="9">
+      <c r="K13" s="9">
         <v>2.62</v>
       </c>
-      <c r="K13" s="9">
+      <c r="L13" s="9">
         <v>0.2</v>
       </c>
-      <c r="L13" s="10">
+      <c r="M13" s="10">
         <v>1.5</v>
       </c>
-      <c r="M13" s="11">
+      <c r="N13" s="11">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="N13" s="9">
+      <c r="O13" s="9">
         <v>0.48</v>
       </c>
-      <c r="O13" s="10">
+      <c r="P13" s="10">
         <v>21.1</v>
       </c>
-      <c r="P13" s="10">
+      <c r="Q13" s="10">
         <v>23.5</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="R13" s="8">
         <v>92</v>
       </c>
-      <c r="R13" s="9">
+      <c r="S13" s="9">
         <v>0.24</v>
       </c>
-      <c r="S13" s="8">
+      <c r="T13" s="8">
         <v>53</v>
       </c>
-      <c r="T13" s="9">
+      <c r="U13" s="9">
         <v>0.23</v>
       </c>
-      <c r="U13" s="9">
+      <c r="V13" s="9">
         <v>5.41</v>
       </c>
-      <c r="V13" s="9">
+      <c r="W13" s="9">
         <v>1.19</v>
       </c>
-      <c r="W13" s="10">
+      <c r="X13" s="10">
         <v>1.7</v>
       </c>
-      <c r="X13" s="10">
+      <c r="Y13" s="10">
         <v>82.6</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Z13" s="10">
         <v>0.7</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="AA13" s="8">
         <v>346</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="AB13" s="10">
         <v>9.5</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>22</v>
       </c>
@@ -2779,77 +2827,80 @@
       <c r="D14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="F14" s="9">
         <v>7.46</v>
       </c>
-      <c r="F14" s="9">
+      <c r="G14" s="9">
         <v>2.11</v>
       </c>
-      <c r="G14" s="9">
+      <c r="H14" s="9">
         <v>8.7100000000000009</v>
       </c>
-      <c r="H14" s="9">
+      <c r="I14" s="9">
         <v>4.3</v>
       </c>
-      <c r="I14" s="9">
+      <c r="J14" s="9">
         <v>4.25</v>
       </c>
-      <c r="J14" s="9">
+      <c r="K14" s="9">
         <v>4.7300000000000004</v>
       </c>
-      <c r="K14" s="9">
+      <c r="L14" s="9">
         <v>0.34</v>
       </c>
-      <c r="L14" s="10">
+      <c r="M14" s="10">
         <v>2.4</v>
       </c>
-      <c r="M14" s="11">
+      <c r="N14" s="11">
         <v>0.08</v>
       </c>
-      <c r="N14" s="9">
+      <c r="O14" s="9">
         <v>0.92</v>
       </c>
-      <c r="O14" s="10">
+      <c r="P14" s="10">
         <v>35.700000000000003</v>
       </c>
-      <c r="P14" s="10">
+      <c r="Q14" s="10">
         <v>34.5</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="R14" s="8">
         <v>290</v>
       </c>
-      <c r="R14" s="9">
+      <c r="S14" s="9">
         <v>0.74</v>
       </c>
-      <c r="S14" s="8">
+      <c r="T14" s="8">
         <v>46</v>
       </c>
-      <c r="T14" s="9">
+      <c r="U14" s="9">
         <v>0.2</v>
       </c>
-      <c r="U14" s="9">
+      <c r="V14" s="9">
         <v>6.61</v>
       </c>
-      <c r="V14" s="13">
+      <c r="W14" s="13">
         <v>1.62</v>
       </c>
-      <c r="W14" s="10">
+      <c r="X14" s="10">
         <v>3.5</v>
       </c>
-      <c r="X14" s="10">
+      <c r="Y14" s="10">
         <v>87.7</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Z14" s="10">
         <v>0.7</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="AA14" s="8">
         <v>397</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AB14" s="10">
         <v>12.2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>23</v>
       </c>
@@ -2862,77 +2913,80 @@
       <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="18">
+        <v>7.9861111111111119E-2</v>
+      </c>
+      <c r="F15" s="9">
         <v>7.53</v>
       </c>
-      <c r="F15" s="9">
+      <c r="G15" s="9">
         <v>1.86</v>
       </c>
-      <c r="G15" s="9">
+      <c r="H15" s="9">
         <v>7.83</v>
       </c>
-      <c r="H15" s="9">
+      <c r="I15" s="9">
         <v>3.72</v>
       </c>
-      <c r="I15" s="9">
+      <c r="J15" s="9">
         <v>4.53</v>
       </c>
-      <c r="J15" s="9">
+      <c r="K15" s="9">
         <v>3.47</v>
       </c>
-      <c r="K15" s="9">
+      <c r="L15" s="9">
         <v>0.33</v>
       </c>
-      <c r="L15" s="10">
+      <c r="M15" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="11">
         <v>0.06</v>
       </c>
-      <c r="N15" s="9">
+      <c r="O15" s="9">
         <v>0.68</v>
       </c>
-      <c r="O15" s="10">
+      <c r="P15" s="10">
         <v>29.5</v>
       </c>
-      <c r="P15" s="10">
+      <c r="Q15" s="10">
         <v>37.1</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="R15" s="8">
         <v>223</v>
       </c>
-      <c r="R15" s="9">
+      <c r="S15" s="9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="S15" s="8">
+      <c r="T15" s="8">
         <v>55</v>
       </c>
-      <c r="T15" s="9">
+      <c r="U15" s="9">
         <v>0.24</v>
       </c>
-      <c r="U15" s="9">
+      <c r="V15" s="9">
         <v>6.82</v>
       </c>
-      <c r="V15" s="13">
+      <c r="W15" s="13">
         <v>1.59</v>
       </c>
-      <c r="W15" s="10">
+      <c r="X15" s="10">
         <v>3.3</v>
       </c>
-      <c r="X15" s="10">
+      <c r="Y15" s="10">
         <v>85.2</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Z15" s="10">
         <v>0.7</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="AA15" s="8">
         <v>372</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AB15" s="10">
         <v>11.9</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>24</v>
       </c>
@@ -2945,77 +2999,80 @@
       <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="18">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F16" s="9">
         <v>7.48</v>
       </c>
-      <c r="F16" s="9">
+      <c r="G16" s="9">
         <v>1.56</v>
       </c>
-      <c r="G16" s="9">
+      <c r="H16" s="9">
         <v>6.51</v>
       </c>
-      <c r="H16" s="9">
+      <c r="I16" s="9">
         <v>3.13</v>
       </c>
-      <c r="I16" s="9">
+      <c r="J16" s="9">
         <v>4.1500000000000004</v>
       </c>
-      <c r="J16" s="9">
+      <c r="K16" s="9">
         <v>3.12</v>
       </c>
-      <c r="K16" s="9">
+      <c r="L16" s="9">
         <v>0.32</v>
       </c>
-      <c r="L16" s="10">
+      <c r="M16" s="10">
         <v>2</v>
       </c>
-      <c r="M16" s="11">
+      <c r="N16" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N16" s="9">
+      <c r="O16" s="9">
         <v>0.64</v>
       </c>
-      <c r="O16" s="10">
+      <c r="P16" s="10">
         <v>26.2</v>
       </c>
-      <c r="P16" s="10">
+      <c r="Q16" s="10">
         <v>34.700000000000003</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="R16" s="8">
         <v>175</v>
       </c>
-      <c r="R16" s="9">
+      <c r="S16" s="9">
         <v>0.45</v>
       </c>
-      <c r="S16" s="8">
+      <c r="T16" s="8">
         <v>49</v>
       </c>
-      <c r="T16" s="9">
+      <c r="U16" s="9">
         <v>0.21</v>
       </c>
-      <c r="U16" s="9">
+      <c r="V16" s="9">
         <v>6.16</v>
       </c>
-      <c r="V16" s="9">
+      <c r="W16" s="9">
         <v>1.5</v>
       </c>
-      <c r="W16" s="10">
+      <c r="X16" s="10">
         <v>3.1</v>
       </c>
-      <c r="X16" s="10">
+      <c r="Y16" s="10">
         <v>87.9</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="Z16" s="10">
         <v>0.7</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="AA16" s="8">
         <v>399</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AB16" s="10">
         <v>10.4</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>25</v>
       </c>
@@ -3028,77 +3085,80 @@
       <c r="D17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="18">
+        <v>4.6666666666666662E-2</v>
+      </c>
+      <c r="F17" s="9">
         <v>7.25</v>
       </c>
-      <c r="F17" s="9">
+      <c r="G17" s="9">
         <v>1.8</v>
       </c>
-      <c r="G17" s="9">
+      <c r="H17" s="9">
         <v>7.99</v>
       </c>
-      <c r="H17" s="9">
+      <c r="I17" s="9">
         <v>3.15</v>
       </c>
-      <c r="I17" s="9">
+      <c r="J17" s="9">
         <v>5.13</v>
       </c>
-      <c r="J17" s="9">
+      <c r="K17" s="9">
         <v>3.56</v>
       </c>
-      <c r="K17" s="9">
+      <c r="L17" s="9">
         <v>0.22</v>
       </c>
-      <c r="L17" s="10">
+      <c r="M17" s="10">
         <v>1.4</v>
       </c>
-      <c r="M17" s="11">
+      <c r="N17" s="11">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="N17" s="9">
+      <c r="O17" s="9">
         <v>0.63</v>
       </c>
-      <c r="O17" s="10">
+      <c r="P17" s="10">
         <v>30.4</v>
       </c>
-      <c r="P17" s="10">
+      <c r="Q17" s="10">
         <v>31.9</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="R17" s="8">
         <v>145</v>
       </c>
-      <c r="R17" s="9">
+      <c r="S17" s="9">
         <v>0.37</v>
       </c>
-      <c r="S17" s="8">
+      <c r="T17" s="8">
         <v>65</v>
       </c>
-      <c r="T17" s="9">
+      <c r="U17" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="U17" s="9">
+      <c r="V17" s="9">
         <v>6.31</v>
       </c>
-      <c r="V17" s="13">
+      <c r="W17" s="13">
         <v>1.39</v>
       </c>
-      <c r="W17" s="10">
+      <c r="X17" s="10">
         <v>2.1</v>
       </c>
-      <c r="X17" s="10">
+      <c r="Y17" s="10">
         <v>107.6</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Z17" s="10">
         <v>0.7</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="AA17" s="8">
         <v>301</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AB17" s="10">
         <v>9.6</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>26</v>
       </c>
@@ -3111,77 +3171,80 @@
       <c r="D18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="18">
+        <v>6.3333333333333325E-2</v>
+      </c>
+      <c r="F18" s="9">
         <v>7.34</v>
       </c>
-      <c r="F18" s="9">
+      <c r="G18" s="9">
         <v>2.3199999999999998</v>
       </c>
-      <c r="G18" s="9">
+      <c r="H18" s="9">
         <v>9.99</v>
       </c>
-      <c r="H18" s="9">
+      <c r="I18" s="9">
         <v>4.71</v>
       </c>
-      <c r="I18" s="9">
+      <c r="J18" s="9">
         <v>5.44</v>
       </c>
-      <c r="J18" s="9">
+      <c r="K18" s="9">
         <v>4.24</v>
       </c>
-      <c r="K18" s="9">
+      <c r="L18" s="9">
         <v>0.35</v>
       </c>
-      <c r="L18" s="10">
+      <c r="M18" s="10">
         <v>1.9</v>
       </c>
-      <c r="M18" s="11">
+      <c r="N18" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N18" s="9">
+      <c r="O18" s="9">
         <v>0.79</v>
       </c>
-      <c r="O18" s="10">
+      <c r="P18" s="10">
         <v>46.8</v>
       </c>
-      <c r="P18" s="10">
+      <c r="Q18" s="10">
         <v>39.700000000000003</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="R18" s="8">
         <v>264</v>
       </c>
-      <c r="R18" s="9">
+      <c r="S18" s="9">
         <v>0.68</v>
       </c>
-      <c r="S18" s="8">
+      <c r="T18" s="8">
         <v>63</v>
       </c>
-      <c r="T18" s="9">
+      <c r="U18" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="U18" s="9">
+      <c r="V18" s="9">
         <v>7.38</v>
       </c>
-      <c r="V18" s="13">
+      <c r="W18" s="13">
         <v>1.76</v>
       </c>
-      <c r="W18" s="10">
+      <c r="X18" s="10">
         <v>3.8</v>
       </c>
-      <c r="X18" s="10">
+      <c r="Y18" s="10">
         <v>103.9</v>
       </c>
-      <c r="Y18" s="10">
+      <c r="Z18" s="10">
         <v>0.8</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="AA18" s="8">
         <v>358</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AB18" s="10">
         <v>12.2</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>28</v>
       </c>
@@ -3194,77 +3257,80 @@
       <c r="D19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="18">
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="F19" s="9">
         <v>7.3</v>
       </c>
-      <c r="F19" s="9">
+      <c r="G19" s="9">
         <v>2.21</v>
       </c>
-      <c r="G19" s="9">
+      <c r="H19" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="H19" s="9">
+      <c r="I19" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I19" s="9">
+      <c r="J19" s="9">
         <v>5.14</v>
       </c>
-      <c r="J19" s="9">
+      <c r="K19" s="9">
         <v>4.16</v>
       </c>
-      <c r="K19" s="9">
+      <c r="L19" s="9">
         <v>0.4</v>
       </c>
-      <c r="L19" s="10">
+      <c r="M19" s="10">
         <v>2</v>
       </c>
-      <c r="M19" s="11">
+      <c r="N19" s="11">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="N19" s="9">
+      <c r="O19" s="9">
         <v>0.8</v>
       </c>
-      <c r="O19" s="10">
+      <c r="P19" s="10">
         <v>41.5</v>
       </c>
-      <c r="P19" s="10">
+      <c r="Q19" s="10">
         <v>33.5</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="R19" s="8">
         <v>218</v>
       </c>
-      <c r="R19" s="9">
+      <c r="S19" s="9">
         <v>0.56000000000000005</v>
       </c>
-      <c r="S19" s="8">
+      <c r="T19" s="8">
         <v>60</v>
       </c>
-      <c r="T19" s="9">
+      <c r="U19" s="9">
         <v>0.26</v>
       </c>
-      <c r="U19" s="9">
+      <c r="V19" s="9">
         <v>7.4</v>
       </c>
-      <c r="V19" s="13">
+      <c r="W19" s="13">
         <v>1.85</v>
       </c>
-      <c r="W19" s="10">
+      <c r="X19" s="10">
         <v>3.5</v>
       </c>
-      <c r="X19" s="10">
+      <c r="Y19" s="10">
         <v>99.3</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Z19" s="10">
         <v>0.7</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="AA19" s="8">
         <v>366</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AB19" s="10">
         <v>11.8</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>30</v>
       </c>
@@ -3277,77 +3343,80 @@
       <c r="D20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F20" s="9">
         <v>7.29</v>
       </c>
-      <c r="F20" s="9">
+      <c r="G20" s="9">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G20" s="9">
+      <c r="H20" s="9">
         <v>9.74</v>
       </c>
-      <c r="H20" s="9">
+      <c r="I20" s="9">
         <v>4.55</v>
       </c>
-      <c r="I20" s="9">
+      <c r="J20" s="9">
         <v>4.83</v>
       </c>
-      <c r="J20" s="9">
+      <c r="K20" s="9">
         <v>5.33</v>
       </c>
-      <c r="K20" s="9">
+      <c r="L20" s="9">
         <v>0.36</v>
       </c>
-      <c r="L20" s="10">
+      <c r="M20" s="10">
         <v>2.1</v>
       </c>
-      <c r="M20" s="11">
+      <c r="N20" s="11">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="N20" s="9">
+      <c r="O20" s="9">
         <v>1.0900000000000001</v>
       </c>
-      <c r="O20" s="10">
+      <c r="P20" s="10">
         <v>40.1</v>
       </c>
-      <c r="P20" s="10">
+      <c r="Q20" s="10">
         <v>37.1</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="R20" s="8">
         <v>302</v>
       </c>
-      <c r="R20" s="9">
+      <c r="S20" s="9">
         <v>0.77</v>
       </c>
-      <c r="S20" s="8">
+      <c r="T20" s="8">
         <v>53</v>
       </c>
-      <c r="T20" s="9">
+      <c r="U20" s="9">
         <v>0.23</v>
       </c>
-      <c r="U20" s="9">
+      <c r="V20" s="9">
         <v>7.19</v>
       </c>
-      <c r="V20" s="13">
+      <c r="W20" s="13">
         <v>1.71</v>
       </c>
-      <c r="W20" s="10">
+      <c r="X20" s="10">
         <v>3.2</v>
       </c>
-      <c r="X20" s="10">
+      <c r="Y20" s="10">
         <v>95.6</v>
       </c>
-      <c r="Y20" s="10">
+      <c r="Z20" s="10">
         <v>0.7</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="AA20" s="8">
         <v>270</v>
       </c>
-      <c r="AA20" s="10">
+      <c r="AB20" s="10">
         <v>11.2</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>31</v>
       </c>
@@ -3360,73 +3429,76 @@
       <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="18">
+        <v>5.7692307692307689E-2</v>
+      </c>
+      <c r="F21" s="9">
         <v>7.38</v>
       </c>
-      <c r="F21" s="9">
+      <c r="G21" s="9">
         <v>1.98</v>
       </c>
-      <c r="G21" s="9">
+      <c r="H21" s="9">
         <v>8.49</v>
       </c>
-      <c r="H21" s="9">
+      <c r="I21" s="9">
         <v>3.87</v>
       </c>
-      <c r="I21" s="9">
+      <c r="J21" s="9">
         <v>5.14</v>
       </c>
-      <c r="J21" s="9">
+      <c r="K21" s="9">
         <v>4.01</v>
       </c>
-      <c r="K21" s="9">
+      <c r="L21" s="9">
         <v>0.37</v>
       </c>
-      <c r="L21" s="10">
+      <c r="M21" s="10">
         <v>1.8</v>
       </c>
-      <c r="M21" s="11">
+      <c r="N21" s="11">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="N21" s="9">
+      <c r="O21" s="9">
         <v>0.82</v>
       </c>
-      <c r="O21" s="10">
+      <c r="P21" s="10">
         <v>33.1</v>
       </c>
-      <c r="P21" s="10">
+      <c r="Q21" s="10">
         <v>44.1</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="R21" s="8">
         <v>246</v>
       </c>
-      <c r="R21" s="9">
+      <c r="S21" s="9">
         <v>0.63</v>
       </c>
-      <c r="S21" s="8">
+      <c r="T21" s="8">
         <v>59</v>
       </c>
-      <c r="T21" s="9">
+      <c r="U21" s="9">
         <v>0.26</v>
       </c>
-      <c r="U21" s="9">
+      <c r="V21" s="9">
         <v>6.88</v>
       </c>
-      <c r="V21" s="9">
+      <c r="W21" s="9">
         <v>1.6</v>
       </c>
-      <c r="W21" s="10">
+      <c r="X21" s="10">
         <v>3.5</v>
       </c>
-      <c r="X21" s="10">
+      <c r="Y21" s="10">
         <v>110.1</v>
       </c>
-      <c r="Y21" s="10">
+      <c r="Z21" s="10">
         <v>0.8</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="AA21" s="8">
         <v>376</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AB21" s="10">
         <v>11.6</v>
       </c>
     </row>
